--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583708.433213431</v>
+        <v>2659238.102878238</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1299600.5110981</v>
+        <v>255477.1747308442</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>237.7281468709367</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>310.8635759547339</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.59206496516759</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>65.25024693872075</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>269.5431107021494</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>84.14732336703915</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>184.5515729720762</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.7144888697889</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>258.1497889606068</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.100838474818351</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>205.3644314241349</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441615913</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>34.41402714674053</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.18937547121151</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>137.9939165120838</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,10 +1824,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>140.3605060896956</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.0130338576</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>66.87635383915838</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>54.99895872051309</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>146.1376772316258</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>5.562624396423989</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>67.71351309394451</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>151.6911017891551</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>160.8722505808159</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.427396003197659</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>76.27978370493953</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>200.5701849660525</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>9.287915044372252</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>104.6354350586182</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>242.7225667078973</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>64.0341746512463</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>139.0170995614178</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1645.450628940882</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.915471247702</v>
+        <v>1276.48811200047</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.915471247702</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1106.127218649458</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>695.1413138598505</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4340,16 +4342,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4361,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1645.450628940882</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,28 +4430,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.8899898843846</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C4" t="n">
-        <v>227.8899898843846</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>77.77335047204889</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>77.77335047204889</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>77.77335047204889</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>77.77335047204889</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>77.77335047204889</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>77.77335047204889</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4512,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.6560661520982</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>257.3478788207</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>257.3478788207</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146243</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146243</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.21241430279</v>
+        <v>1507.144219645282</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1507.144219645282</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>1893.744059709404</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4640,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,16 +4649,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1181.549686895098</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>812.587169954686</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>454.3214713479355</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2381.363038962244</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2028.59438369213</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2028.59438369213</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y8" t="n">
-        <v>1638.455051716319</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>721.9665211005574</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>721.9665211005574</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>721.9665211005574</v>
       </c>
       <c r="V10" t="n">
-        <v>491.2732454397182</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>246.4894537511404</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,19 +5056,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5106,7 +5108,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
@@ -5115,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704857</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>939.1942790685366</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O12" t="n">
         <v>1808.163466324677</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.0071030383451</v>
+        <v>842.8697743566707</v>
       </c>
       <c r="C13" t="n">
-        <v>675.0071030383451</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D13" t="n">
-        <v>675.0071030383451</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247869</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383451</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383451</v>
+        <v>1353.079523537162</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383451</v>
+        <v>1063.662353500201</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383451</v>
+        <v>1063.662353500201</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383451</v>
+        <v>842.8697743566707</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>660.3780132492466</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M15" t="n">
-        <v>980.7133327789484</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N15" t="n">
-        <v>1785.124911043099</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
         <v>2554.178946862809</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>870.7229774352686</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>701.7867945073617</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>551.670155095026</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>551.670155095026</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>404.7802075971156</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>236.6048859169362</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488391</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429522</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>354.6908600059916</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X16" t="n">
-        <v>126.7013091079743</v>
+        <v>870.7229774352686</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.7013091079743</v>
+        <v>870.7229774352686</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>246.2867756623459</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>476.249881530695</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>796.5852010603968</v>
+        <v>980.7133327789488</v>
       </c>
       <c r="N18" t="n">
-        <v>1600.996779324548</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O18" t="n">
-        <v>1849.75019340851</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>2370.050815144257</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383756</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>731.31772835508</v>
+        <v>1102.453493372525</v>
       </c>
       <c r="X19" t="n">
-        <v>731.31772835508</v>
+        <v>874.4639424745077</v>
       </c>
       <c r="Y19" t="n">
-        <v>593.9308254686154</v>
+        <v>653.6713633309776</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.9892362638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.05892046586</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372324</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M21" t="n">
-        <v>3540.192194764785</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N21" t="n">
-        <v>4344.603773028936</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774861</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557071</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>333.7051469529993</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="C22" t="n">
-        <v>164.7689640250923</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>467.8368643964697</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>320.9469168985593</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>152.7715952183799</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247865</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>964.1357418247865</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X22" t="n">
-        <v>736.1461909267691</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y22" t="n">
-        <v>515.353611783239</v>
+        <v>615.7499579788628</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,10 +5974,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5987,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6013,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.37939989955</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2716.37939989955</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292012</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>693.278648292552</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>693.278648292552</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>543.1620088802163</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>395.2489152978231</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>395.2489152978231</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4744.160657054477</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4520.375241843983</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.246603057541</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851654</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814693</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916676</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>874.9271131227918</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,16 +6229,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1319.443679146046</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1064.759190940159</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6463,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,7 +6499,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L30" t="n">
-        <v>618.8589595388348</v>
+        <v>476.2498815306948</v>
       </c>
       <c r="M30" t="n">
-        <v>1364.414563824403</v>
+        <v>1244.618027923156</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.414563824403</v>
+        <v>1589.138683560774</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>1837.892097644736</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.5712828402495</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1145.772925332894</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>856.644286546452</v>
       </c>
       <c r="V31" t="n">
-        <v>1336.419047748997</v>
+        <v>856.644286546452</v>
       </c>
       <c r="W31" t="n">
-        <v>1047.001877712037</v>
+        <v>856.644286546452</v>
       </c>
       <c r="X31" t="n">
-        <v>819.0123268140193</v>
+        <v>856.644286546452</v>
       </c>
       <c r="Y31" t="n">
-        <v>598.2197476704891</v>
+        <v>856.644286546452</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6679,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619129</v>
@@ -6719,10 +6721,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>709.2311732001874</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>573.2461374003673</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="C34" t="n">
-        <v>573.2461374003673</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="D34" t="n">
-        <v>573.2461374003673</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="E34" t="n">
-        <v>425.3330438179742</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F34" t="n">
-        <v>425.3330438179742</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G34" t="n">
-        <v>257.1577221377947</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>106.739713685738</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W34" t="n">
-        <v>754.894602230607</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X34" t="n">
-        <v>754.894602230607</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="Y34" t="n">
-        <v>754.894602230607</v>
+        <v>3575.849309876492</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6929,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6947,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,22 +7019,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>246.2867756623457</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>684.1208130436056</v>
+        <v>550.0023305088838</v>
       </c>
       <c r="M36" t="n">
-        <v>1452.488959436067</v>
+        <v>1318.370476901345</v>
       </c>
       <c r="N36" t="n">
-        <v>2256.900537700218</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O36" t="n">
-        <v>2536.440602918915</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>761.5395953944297</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7196,25 +7198,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>264.0657286834808</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>494.02883455183</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M39" t="n">
-        <v>814.3641540815318</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.414563824403</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O39" t="n">
-        <v>2033.878325127062</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P39" t="n">
         <v>2554.178946862809</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1378.459434751675</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="X40" t="n">
-        <v>241.9805482336712</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,16 +7402,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7427,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>2107.322705390779</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O42" t="n">
-        <v>2386.862770609477</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.475226584133</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="C43" t="n">
-        <v>927.5390436562259</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="D43" t="n">
-        <v>777.4224042438901</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="E43" t="n">
-        <v>629.509310661497</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="F43" t="n">
-        <v>482.6193631635866</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G43" t="n">
-        <v>314.4440414834072</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>4080.89973447522</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>4080.89973447522</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>3791.482564438259</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>3791.482564438259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.123691414372</v>
+        <v>3570.689985294729</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7734,19 +7736,19 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1288.32563221405</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N45" t="n">
-        <v>1813.102806324394</v>
+        <v>1938.523579407784</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.642871543091</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.943493278838</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>420.3226148324571</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C46" t="n">
-        <v>420.3226148324571</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D46" t="n">
-        <v>420.3226148324571</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E46" t="n">
-        <v>420.3226148324571</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F46" t="n">
-        <v>273.4326673345467</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
         <v>208.7516828383384</v>
@@ -7834,22 +7836,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>1047.499844346979</v>
       </c>
       <c r="W46" t="n">
-        <v>420.3226148324571</v>
+        <v>758.0826743100185</v>
       </c>
       <c r="X46" t="n">
-        <v>420.3226148324571</v>
+        <v>758.0826743100185</v>
       </c>
       <c r="Y46" t="n">
-        <v>420.3226148324571</v>
+        <v>537.2900951664884</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.2530095289818</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,25 +9953,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10358,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>192.9988984593898</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11382,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>196.8833802487998</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6695415024076</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>217.7236161770875</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.6426047107258</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>10.91991185545231</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>146.1624922468954</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.57161949449477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>81.73911917905397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>93.91486964702304</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>20.3558912317518</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>192.3581855871793</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>218.5238393046328</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>69.85645926923414</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>91.26539274301206</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>30.90698584635182</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>100.9918494610743</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>90.9670373936883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>85.66716743252488</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>188.632894939231</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>44.27839330891797</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>43.51478569068001</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>102.4593938121313</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>113.1205437624103</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="G2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="H2" t="n">
-        <v>566992.136619678</v>
-      </c>
       <c r="I2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="K2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="O2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196778</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758698</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757999</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,16 +26478,16 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26497,7 +26499,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069684</v>
+        <v>-216630.8133069685</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075761</v>
+        <v>373337.0659075765</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075762</v>
+        <v>373337.0659075764</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.01949651109</v>
+        <v>-50943.01949651052</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803857</v>
+        <v>474217.0169803854</v>
       </c>
       <c r="G6" t="n">
+        <v>474217.0169803855</v>
+      </c>
+      <c r="H6" t="n">
         <v>474217.0169803853</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>474217.0169803853</v>
+      </c>
+      <c r="J6" t="n">
+        <v>297793.7977877924</v>
+      </c>
+      <c r="K6" t="n">
         <v>474217.0169803855</v>
       </c>
-      <c r="I6" t="n">
-        <v>474217.016980386</v>
-      </c>
-      <c r="J6" t="n">
-        <v>297793.7977877925</v>
-      </c>
-      <c r="K6" t="n">
-        <v>474217.0169803854</v>
-      </c>
       <c r="L6" t="n">
-        <v>474217.0169803855</v>
+        <v>474217.0169803853</v>
       </c>
       <c r="M6" t="n">
         <v>339416.0017465483</v>
       </c>
       <c r="N6" t="n">
-        <v>474217.0169803851</v>
+        <v>474217.0169803853</v>
       </c>
       <c r="O6" t="n">
+        <v>474217.0169803854</v>
+      </c>
+      <c r="P6" t="n">
         <v>474217.0169803855</v>
-      </c>
-      <c r="P6" t="n">
-        <v>474217.0169803853</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,16 +26798,16 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>116.9548947497463</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>102.9205940660611</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>21.6078942233694</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>146.8952920112982</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>95.72978106885813</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>270.5357182536438</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>101.7303012699015</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0489046421614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>6.215881202472872</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27910,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>69.60246950952808</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>206.0447004752006</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>46.77321189969305</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29101,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31619,10 +31621,10 @@
         <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034984</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>278.4799167015757</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>58.66904626099313</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>209.9396523866405</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>262.5905971701976</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32102,13 +32104,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>209.9396523866412</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.9880118369208</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>175.1732645054592</v>
       </c>
       <c r="O21" t="n">
-        <v>368.95525125851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,22 +32794,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>171.3135836203297</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33023,10 +33025,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33035,16 +33037,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>175.1732645054592</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33260,28 +33262,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>429.5154391473395</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>311.0389018205424</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33500,28 +33502,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>408.5315900543043</v>
+        <v>426.8737578854631</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33667,7 +33669,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O35" t="n">
         <v>562.4526372540886</v>
@@ -33737,10 +33739,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>98.44906376001154</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,13 +33751,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33983,13 +33985,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>207.6058122275282</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>383.0062604371802</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34150,7 +34152,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34220,19 +34222,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>66.75583490806542</v>
       </c>
       <c r="P42" t="n">
-        <v>285.0631269188133</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34381,7 +34383,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946992</v>
@@ -34454,22 +34456,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>370.608033708144</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>626.4805789617959</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>309.9351210932782</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>442.2256179102255</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>513.8566720024827</v>
       </c>
       <c r="P15" t="n">
-        <v>525.556183571462</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>533.5106822146228</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.0835254867484</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>523.1739267656794</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3590068140656</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>343.828448116921</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>519.3142458805499</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>523.1739267656794</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>753.0864689753211</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5272630461494</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>774.8744201456833</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>442.2566034154141</v>
+        <v>330.7350292835965</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004661</v>
@@ -37397,13 +37399,13 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>126.6237980382196</v>
@@ -37631,13 +37633,13 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>555.6064744877484</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>634.2723352694653</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37798,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>318.0219097403505</v>
       </c>
       <c r="P42" t="n">
-        <v>151.0887195044831</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38102,22 +38104,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>530.0779536468126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>621.8741085404291</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2659238.102878238</v>
+        <v>2652221.087986527</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255477.1747308442</v>
+        <v>619124.2485221175</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237.7281468709367</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>52.8229012276257</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -797,10 +797,10 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44.17579562641266</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>65.25024693872075</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>84.14732336703915</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>93.75936914444252</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>184.5515729720762</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.7144888697889</v>
+        <v>60.4617907661316</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.100838474818351</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.41402714674053</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>29.36686421043337</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>137.9939165120838</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>161.6255032160662</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>140.3605060896956</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2137,13 +2137,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>54.99895872051309</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>146.1376772316258</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273909</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>151.6911017891551</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>79.75985463823444</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>115.5269768002174</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>190.6405752120377</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>200.5701849660525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>9.287915044372252</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>242.7225667078973</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>139.0170995614178</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1645.450628940882</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.48811200047</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>107.2994477068551</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.589960916693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1645.450628940882</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,16 +4430,16 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>245.45494510253</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.6560661520982</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>257.3478788207</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>257.3478788207</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>257.3478788207</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.3478788207</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.144219645282</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1507.144219645282</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2602.442657538988</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.744059709404</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.744059709404</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4661,16 +4661,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>512.2963347852319</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>512.2963347852319</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181.549686895098</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>812.587169954686</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D8" t="n">
-        <v>454.3214713479355</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4804,22 +4804,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.149526959219</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511404</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511404</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>721.9665211005574</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>721.9665211005574</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>721.9665211005574</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>467.2820328946706</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>467.2820328946706</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>467.2820328946706</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511404</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,25 +5056,25 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>711.1141612171748</v>
       </c>
       <c r="M12" t="n">
-        <v>1156.807040804714</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>1501.327696442332</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>842.8697743566707</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C13" t="n">
-        <v>673.9335914287639</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D13" t="n">
-        <v>523.8169520164281</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
         <v>523.8169520164281</v>
@@ -5196,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>1353.079523537162</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W13" t="n">
-        <v>1063.662353500201</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="X13" t="n">
-        <v>1063.662353500201</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="Y13" t="n">
-        <v>842.8697743566707</v>
+        <v>990.7828679390639</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.405785702849</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N15" t="n">
-        <v>1862.817363967</v>
+        <v>1210.105893490365</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>1879.569654793025</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2399.870276528772</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.7229774352686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>701.7867945073617</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>551.670155095026</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>551.670155095026</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>404.7802075971156</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6048859169362</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.712528333286</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>870.7229774352686</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>870.7229774352686</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5377573864724</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>980.7133327789488</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1785.124911043099</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.6713633309776</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C19" t="n">
-        <v>653.6713633309776</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5709,16 +5709,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1102.453493372525</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>874.4639424745077</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y19" t="n">
-        <v>653.6713633309776</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="20">
@@ -5752,16 +5752,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,7 +5788,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5834,22 +5834,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L21" t="n">
-        <v>836.4717212750119</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>1604.839867667473</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>467.8368643964697</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>320.9469168985593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>152.7715952183799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>843.7395088768801</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,19 +5980,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6013,13 +6013,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6031,10 +6031,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,16 +6077,16 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1608.660951743751</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>693.278648292552</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>693.278648292552</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>543.1620088802163</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>395.2489152978231</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>395.2489152978231</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227918</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>874.9271131227918</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>874.9271131227918</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.9271131227918</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822445</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1604.839867667473</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6505,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>246.2867756623457</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>476.2498815306948</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1244.618027923156</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1589.138683560774</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.892097644736</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.9958217162123</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.772925332894</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>856.644286546452</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>856.644286546452</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>856.644286546452</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X31" t="n">
-        <v>856.644286546452</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y31" t="n">
-        <v>856.644286546452</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>388.8958536704856</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>709.2311732001874</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1476.356849144414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3575.849309876492</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C34" t="n">
-        <v>3575.849309876492</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>3575.849309876492</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4093.25603081147</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>3803.838860774509</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.849309876492</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>3575.849309876492</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>550.0023305088838</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1318.370476901345</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>761.5395953944297</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>506.8551071885429</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,10 +7153,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,58 +7165,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1942790685366</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1743.605857332687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1378.459434751675</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1154.674019541181</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1154.674019541181</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1154.674019541181</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1154.674019541181</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7432,31 +7432,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7502,13 +7502,13 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>2056.693778606511</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4080.89973447522</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>4080.89973447522</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>3791.482564438259</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3791.482564438259</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,43 +7633,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,16 +7736,16 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1608.660951743751</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1938.523579407784</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1047.499844346979</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>758.0826743100185</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>758.0826743100185</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>537.2900951664884</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,10 +10357,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>217.7236161770875</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>257.1561341261576</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>10.91991185545231</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>5.621317882561584</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>146.1624922468954</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>93.91486964702304</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>20.3558912317518</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>69.85645926923414</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>206.7631436983565</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>30.90698584635182</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>27.94407814005706</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>85.66716743252488</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>188.632894939231</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>43.51478569068001</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>113.1205437624103</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="G2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196778</v>
       </c>
       <c r="O2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196778</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
@@ -26429,19 +26429,19 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759457</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
@@ -26456,10 +26456,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069685</v>
+        <v>-216630.8133069682</v>
       </c>
       <c r="C6" t="n">
+        <v>373337.0659075764</v>
+      </c>
+      <c r="D6" t="n">
         <v>373337.0659075765</v>
       </c>
-      <c r="D6" t="n">
-        <v>373337.0659075764</v>
-      </c>
       <c r="E6" t="n">
-        <v>-50943.01949651052</v>
+        <v>-51917.61075623254</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803854</v>
+        <v>473242.425720664</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.425720664</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803853</v>
+        <v>473242.425720664</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803853</v>
+        <v>473242.4257206636</v>
       </c>
       <c r="J6" t="n">
-        <v>297793.7977877924</v>
+        <v>296819.2065280709</v>
       </c>
       <c r="K6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206641</v>
       </c>
       <c r="L6" t="n">
-        <v>474217.0169803853</v>
+        <v>473242.4257206639</v>
       </c>
       <c r="M6" t="n">
-        <v>339416.0017465483</v>
+        <v>338441.4104868263</v>
       </c>
       <c r="N6" t="n">
-        <v>474217.0169803853</v>
+        <v>473242.4257206637</v>
       </c>
       <c r="O6" t="n">
-        <v>474217.0169803854</v>
+        <v>473242.4257206637</v>
       </c>
       <c r="P6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206636</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>116.9548947497463</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>271.0998715367314</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.0710254722152</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>146.8952920112982</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>270.5357182536438</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>80.65634366452899</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>101.7303012699015</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.215881202472872</v>
+        <v>321.4685793061302</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>206.0447004752006</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31381,13 +31381,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31846,31 +31846,31 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.4209907335601</v>
       </c>
       <c r="O12" t="n">
-        <v>58.66904626099313</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,25 +32080,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>262.5905971701976</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>155.8673437717548</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32256,7 +32256,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
@@ -32317,13 +32317,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>209.9396523866412</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
@@ -32332,7 +32332,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32487,7 +32487,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946992</v>
@@ -32554,7 +32554,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32563,7 +32563,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>175.1732645054592</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32733,7 +32733,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>171.3135836203297</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -33025,10 +33025,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33037,7 +33037,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>175.1732645054592</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33262,28 +33262,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>311.0389018205424</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33502,25 +33502,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>426.8737578854631</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33669,7 +33669,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
         <v>562.4526372540886</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33736,19 +33736,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>98.44906376001154</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33973,22 +33973,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>383.0062604371802</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34152,10 +34152,10 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34222,10 +34222,10 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>66.75583490806542</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34456,22 +34456,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>370.608033708144</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>479.4216529937803</v>
       </c>
       <c r="O12" t="n">
-        <v>309.9351210932782</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>513.8566720024827</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>225.9628574215824</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>533.5106822146228</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36211,16 +36211,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>523.1739267656794</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>519.3142458805499</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
@@ -36685,16 +36685,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>523.1739267656794</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5272630461494</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>774.8744201456833</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>330.7350292835965</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>634.2723352694653</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>318.0219097403505</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>621.8741085404291</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2652221.087986527</v>
+        <v>2657160.350835559</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619124.2485221175</v>
+        <v>616319.7402836351</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>52.8229012276257</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>52.82290122762556</v>
       </c>
     </row>
     <row r="3">
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>44.17579562641266</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>78.40333552909871</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>27.42525627316494</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>93.75936914444252</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.4617907661316</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>121.636535425331</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>29.36686421043337</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>199.6667541081942</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>161.6255032160662</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273909</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>161.0820101120908</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>79.75985463823444</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.6405752120377</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>107.2994477068551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4375,7 +4375,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4445,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.45494510253</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>133.1382702335955</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>133.1382702335955</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.45494510253</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>88.5907616333709</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>81.64526088416743</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2602.442657538988</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2383.80799051105</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2383.80799051105</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2383.80799051105</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2383.80799051105</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>2010.34223224997</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="6">
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563625</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -5038,43 +5038,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171748</v>
+        <v>381.3300194168668</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N12" t="n">
         <v>1954.109744073479</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.7828679390639</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
-        <v>821.846685011157</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141522</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>990.7828679390639</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X13" t="n">
-        <v>990.7828679390639</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.7828679390639</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5369,13 +5369,13 @@
         <v>865.5852378527472</v>
       </c>
       <c r="N15" t="n">
-        <v>1210.105893490365</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O15" t="n">
-        <v>1879.569654793025</v>
+        <v>1918.75023020086</v>
       </c>
       <c r="P15" t="n">
-        <v>2399.870276528772</v>
+        <v>2439.050851936608</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1186.157577111451</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>931.4730889055638</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>642.0559188686032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,16 +5536,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5591,10 +5591,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
         <v>436.8967109626376</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5746,22 +5746,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5773,16 +5773,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5828,10 +5828,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
         <v>436.8967109626376</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5971,34 +5971,34 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6013,13 +6013,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805453</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822445</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6238,25 +6238,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>244.1070389581962</v>
+        <v>1023.439203208485</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>874.5376338299834</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X31" t="n">
-        <v>646.5480829319661</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y31" t="n">
-        <v>425.7555037884359</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6970,13 +6970,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7122,7 +7122,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
@@ -7165,43 +7165,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7253,16 +7253,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,28 +7435,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>58.19544475660625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>257.1561341261576</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>86.57059829038317</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>5.621317882561584</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>6.164810986536992</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>206.7631436983565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25131,10 +25131,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>27.94407814005706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338574</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="6">
@@ -26319,43 +26319,43 @@
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="H2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196778</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26426,28 +26426,28 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905759185</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.793690575921</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905759457</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069682</v>
+        <v>-216630.8133069683</v>
       </c>
       <c r="C6" t="n">
         <v>373337.0659075764</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075765</v>
+        <v>373337.0659075763</v>
       </c>
       <c r="E6" t="n">
-        <v>-51917.61075623254</v>
+        <v>-51040.47862248268</v>
       </c>
       <c r="F6" t="n">
-        <v>473242.425720664</v>
+        <v>474119.5578544135</v>
       </c>
       <c r="G6" t="n">
-        <v>473242.425720664</v>
+        <v>474119.5578544133</v>
       </c>
       <c r="H6" t="n">
-        <v>473242.425720664</v>
+        <v>474119.5578544136</v>
       </c>
       <c r="I6" t="n">
-        <v>473242.4257206636</v>
+        <v>474119.5578544137</v>
       </c>
       <c r="J6" t="n">
-        <v>296819.2065280709</v>
+        <v>297696.3386618202</v>
       </c>
       <c r="K6" t="n">
-        <v>473242.4257206641</v>
+        <v>474119.557854413</v>
       </c>
       <c r="L6" t="n">
-        <v>473242.4257206639</v>
+        <v>474119.5578544135</v>
       </c>
       <c r="M6" t="n">
-        <v>338441.4104868263</v>
+        <v>339318.5426205764</v>
       </c>
       <c r="N6" t="n">
-        <v>473242.4257206637</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="O6" t="n">
-        <v>473242.4257206637</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="P6" t="n">
-        <v>473242.4257206636</v>
+        <v>474119.5578544133</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990176</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545553</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>271.0998715367314</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>333.415037428428</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>123.0710254722152</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>77.76755331269644</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27590,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>386.35891374763</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80.65634366452899</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061302</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31129,10 +31129,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31846,16 +31846,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>54.69678998811293</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>131.4209907335601</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,16 +32089,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>155.8673437717548</v>
+        <v>116.2910049759609</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32256,7 +32256,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
@@ -32317,7 +32317,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318327</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32554,7 +32554,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318327</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32733,7 +32733,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32800,7 +32800,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33894,7 +33894,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33985,7 +33985,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>286.9827555116979</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>479.4216529937803</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>225.9628574215824</v>
+        <v>186.3865186257885</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1107267700523</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>343.1107267700523</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36448,7 +36448,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37633,7 +37633,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
